--- a/Documents/Data/Home & Garden/category-Home&Garden.xlsx
+++ b/Documents/Data/Home & Garden/category-Home&Garden.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Author's Name</t>
   </si>
@@ -121,14 +121,67 @@
   </si>
   <si>
     <t>In Absolutely Beautiful Things, successful designer Anna Spiro shows you how to create an interior that's just right for you. To her, it's all about the mix, not the match, and, with her help, you'll find beauty in unexpected places. She'll give you the confidence to put together a layered and very individual home using elements you love, and make you see your old belongings in a new light.</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Rhapsody in Green : A Novelist, an Obsession, a Laughably Small Excuse for a Vegetable Garden</t>
+  </si>
+  <si>
+    <t>Plants, Beds and Borders : Create and Maintain Your Perfect Garden</t>
+  </si>
+  <si>
+    <t>Abundance : How to Store and Preserve Your Garden Produce</t>
+  </si>
+  <si>
+    <t>365 Days of Colour</t>
+  </si>
+  <si>
+    <t>The City Grower : Design, Create &amp; Manage a Small Food-Growing Plot</t>
+  </si>
+  <si>
+    <t>The Complete Book of Vegetables, Herbs &amp; Fruit : The Definitive Sourcebook for Growing, Harvesting and Cooking</t>
+  </si>
+  <si>
+    <t>Hygge : The Danish Art of Happiness</t>
+  </si>
+  <si>
+    <t>The Kinfolk Home</t>
+  </si>
+  <si>
+    <t>Domino : Your Guide to a Stylish Home</t>
+  </si>
+  <si>
+    <t>Absolutely Beautiful Things : Decorating Inspiration for a Bright and Colourful Life</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -156,10 +209,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -170,6 +231,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -218,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,9 +315,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,6 +367,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,239 +560,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.375" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="29.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6">
+        <v>9780857833105</v>
+      </c>
+      <c r="G2" s="5">
+        <v>20.41</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="I2" s="4">
         <v>42635</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6">
+        <v>9780857832856</v>
+      </c>
+      <c r="G3" s="5">
+        <v>21.47</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="4">
         <v>42446</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6">
+        <v>9780857833761</v>
+      </c>
+      <c r="G4" s="5">
+        <v>23.23</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="I4" s="4">
         <v>42558</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6">
+        <v>9780857832696</v>
+      </c>
+      <c r="G5" s="5">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="I5" s="4">
         <v>42299</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6">
+        <v>9780857833044</v>
+      </c>
+      <c r="G6" s="5">
+        <v>20.34</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="I6" s="4">
         <v>42541</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>9780857833488</v>
+      </c>
+      <c r="G7" s="5">
+        <v>56.65</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="I7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>9780718185336</v>
+      </c>
+      <c r="G8" s="5">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="I8" s="4">
         <v>42979</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6">
+        <v>9781579656652</v>
+      </c>
+      <c r="G9" s="5">
+        <v>34.25</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="1">
+      <c r="I9" s="4">
         <v>42377</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6">
+        <v>9781501151873</v>
+      </c>
+      <c r="G10" s="5">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1">
+      <c r="I10" s="4">
         <v>42691</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>9781840916935</v>
+      </c>
+      <c r="G11" s="5">
+        <v>39.53</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1">
+      <c r="I11" s="4">
         <v>42283</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
